--- a/Time Sheet.xlsx
+++ b/Time Sheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ninja\School\Atari-Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8AD9FBE-5BFF-4EE1-AB56-E78946F957C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE80DDEF-6530-43D8-B660-4DDFEED18C33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{F056FDBC-FD1C-4AAD-B5EB-AB9B4822F501}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F056FDBC-FD1C-4AAD-B5EB-AB9B4822F501}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
   <si>
     <t>HOURS</t>
   </si>
@@ -105,6 +105,15 @@
   </si>
   <si>
     <t>reorganized code/folders and tried to add commits</t>
+  </si>
+  <si>
+    <t>created this, talked o you, and more</t>
+  </si>
+  <si>
+    <t>pips: gymnasium, ale_py, torch,</t>
+  </si>
+  <si>
+    <t>meeting with prof.</t>
   </si>
 </sst>
 </file>
@@ -112,7 +121,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="[h]:mm"/>
+    <numFmt numFmtId="164" formatCode="[h]:mm"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -145,7 +154,7 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -481,10 +490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA24217B-B1AF-4ADA-826D-205E5762FA65}">
-  <dimension ref="A2:M18"/>
+  <dimension ref="A2:M21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -537,7 +546,7 @@
       </c>
       <c r="M4" s="1">
         <f>SUM(C:C)</f>
-        <v>1.4930555555555554</v>
+        <v>1.5486111111111109</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
@@ -555,7 +564,7 @@
       </c>
       <c r="M5" s="1">
         <f>M3-M4</f>
-        <v>2.2569444444444446</v>
+        <v>2.2013888888888893</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
@@ -699,6 +708,33 @@
       </c>
       <c r="E18" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>45994</v>
+      </c>
+      <c r="C19" s="1">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>46000</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="E20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Time Sheet.xlsx
+++ b/Time Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ninja\School\Atari-Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE80DDEF-6530-43D8-B660-4DDFEED18C33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C34219C-1F47-4BAC-92B7-A777F4F1D24B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F056FDBC-FD1C-4AAD-B5EB-AB9B4822F501}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
   <si>
     <t>HOURS</t>
   </si>
@@ -114,6 +114,9 @@
   </si>
   <si>
     <t>meeting with prof.</t>
+  </si>
+  <si>
+    <t>fixed loader.</t>
   </si>
 </sst>
 </file>
@@ -490,10 +493,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA24217B-B1AF-4ADA-826D-205E5762FA65}">
-  <dimension ref="A2:M21"/>
+  <dimension ref="A2:P21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -503,7 +506,7 @@
     <col min="13" max="13" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -514,7 +517,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -530,8 +533,11 @@
       <c r="M3" s="1">
         <v>3.75</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="P3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -546,10 +552,10 @@
       </c>
       <c r="M4" s="1">
         <f>SUM(C:C)</f>
-        <v>1.5486111111111109</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+        <v>1.5902777777777777</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -564,10 +570,10 @@
       </c>
       <c r="M5" s="1">
         <f>M3-M4</f>
-        <v>2.2013888888888893</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+        <v>2.1597222222222223</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -578,7 +584,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -589,7 +595,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -600,7 +606,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -611,7 +617,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>45989</v>
       </c>
@@ -622,7 +628,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>45992</v>
       </c>
@@ -633,7 +639,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>45992</v>
       </c>
@@ -644,7 +650,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>45993</v>
       </c>
@@ -655,7 +661,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>45993</v>
       </c>
@@ -666,7 +672,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>45994</v>
       </c>
@@ -677,7 +683,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>45994</v>
       </c>
@@ -733,8 +739,14 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>24</v>
+      <c r="A21" s="2">
+        <v>46025</v>
+      </c>
+      <c r="C21" s="1">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E21" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
